--- a/data/trans_camb/P45C_R1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.6512251234787934</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.3060915579902563</v>
+        <v>-0.3060915579902564</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1672727981189576</v>
@@ -664,7 +664,7 @@
         <v>-0.2602616217869662</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.1168925273683971</v>
+        <v>-0.1168925273683973</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.468075151950399</v>
+        <v>-1.286085803675552</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.583488618426349</v>
+        <v>-2.42488193373425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.689110712494403</v>
+        <v>-1.560949951898482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.913951055772898</v>
+        <v>-2.010834762234145</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.406923302753048</v>
+        <v>-1.388834416156053</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.131362536264978</v>
+        <v>-2.176418291597043</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.078284104320256</v>
+        <v>-1.133835902144719</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.545319733749285</v>
+        <v>-1.546869822164899</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.271264585110945</v>
+        <v>-1.439366649873858</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.517396685540822</v>
+        <v>2.8808427171709</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5408631575036158</v>
+        <v>0.6380078397259493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.690785301772155</v>
+        <v>1.880557458788325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.928396590886576</v>
+        <v>1.586471954994474</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.836062882234597</v>
+        <v>2.551233149876758</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.104709852474454</v>
+        <v>1.045781621063784</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.541329145854843</v>
+        <v>1.618775140854933</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.952253948113147</v>
+        <v>0.9563339134179607</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.071837906533492</v>
+        <v>0.8997698360250025</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4896365737682841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2301410315884805</v>
+        <v>-0.2301410315884806</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1121236243485135</v>
@@ -769,7 +769,7 @@
         <v>-0.1744544040736618</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.07835352774144268</v>
+        <v>-0.07835352774144279</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6782977754530389</v>
+        <v>-0.6630566796792035</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6842995515819859</v>
+        <v>-0.6888902734977765</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8575036145623979</v>
+        <v>-0.8905137146687956</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6722000786528639</v>
+        <v>-0.7128249292324473</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.823149756297143</v>
+        <v>-0.8458477831349649</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5345337698488209</v>
+        <v>-0.5633588507656243</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7091854959631454</v>
+        <v>-0.7073954185711112</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5826406027418564</v>
+        <v>-0.62662598610248</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.620111246961296</v>
+        <v>3.786222940176674</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.748578351216157</v>
+        <v>2.859122453680578</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.158094591544374</v>
+        <v>2.684834892483684</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.958542803228106</v>
+        <v>3.977667348972389</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.984719591541848</v>
+        <v>5.443603453262187</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.275151621225764</v>
+        <v>3.212707766310265</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.675068775155554</v>
+        <v>1.842046959601277</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9988057677406066</v>
+        <v>1.241533316948133</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.434008632178699</v>
+        <v>1.171630609212434</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.330519069274646</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3198152214964819</v>
+        <v>0.3198152214964818</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.060123360596144</v>
@@ -869,7 +869,7 @@
         <v>0.4514844429258438</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8224267407433317</v>
+        <v>0.822426740743332</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.6409430832287915</v>
@@ -878,7 +878,7 @@
         <v>0.3861828908623419</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.5314654905913476</v>
+        <v>0.531465490591348</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.305843588627388</v>
+        <v>-1.378341452743779</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.288872482098057</v>
+        <v>-1.211439511622797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.311076308507982</v>
+        <v>-1.379739406595469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8361652295355787</v>
+        <v>-0.8709598734726903</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.432085879414173</v>
+        <v>-1.229724100890223</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.05220691024808</v>
+        <v>-1.046653623344969</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4852966988678684</v>
+        <v>-0.6291272251195683</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8434350032071181</v>
+        <v>-0.8942585915231603</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6212057229475469</v>
+        <v>-0.6492558340374612</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.865956439528102</v>
+        <v>1.877696943715357</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.124949432149147</v>
+        <v>2.386009980579578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.367266029896315</v>
+        <v>2.343858580150755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.822310723564765</v>
+        <v>3.599456402726378</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.394186773662257</v>
+        <v>2.693128394511138</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.795286679957459</v>
+        <v>2.794731916587534</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.963788171339485</v>
+        <v>1.964860906817946</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.743375242678006</v>
+        <v>1.755466822400811</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.951755448853731</v>
+        <v>1.897970541682294</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3517921402951124</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3403993649023424</v>
+        <v>0.3403993649023422</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.6751938763336256</v>
@@ -974,7 +974,7 @@
         <v>0.2875509987366057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5238046058815804</v>
+        <v>0.5238046058815806</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5099314833715594</v>
@@ -983,7 +983,7 @@
         <v>0.3072454006338905</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4228315946757775</v>
+        <v>0.4228315946757777</v>
       </c>
     </row>
     <row r="14">
@@ -994,27 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.9415186100733204</v>
-      </c>
-      <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4766806862099763</v>
+        <v>-0.5047166760620697</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6442339268712951</v>
+        <v>-0.6218635557670429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5090192462004197</v>
+        <v>-0.4791464968539418</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3097044979916151</v>
+        <v>-0.3939356122434604</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5334622720539944</v>
+        <v>-0.5080777750828187</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3987360835503659</v>
+        <v>-0.3994122501674431</v>
       </c>
     </row>
     <row r="15">
@@ -1024,26 +1028,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="n">
+        <v>6.692031105343777</v>
+      </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>5.006604804121104</v>
+        <v>6.008094417118557</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.286788501175288</v>
+        <v>4.683292128322094</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.102153914274057</v>
+        <v>3.913349082579087</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.010576408855055</v>
+        <v>2.725812477412016</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.55203595160703</v>
+        <v>2.563681363962957</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.262776752597419</v>
+        <v>3.135171185858541</v>
       </c>
     </row>
     <row r="16">
@@ -1093,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.571796847562107</v>
+        <v>-3.602239807071818</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.492549183637328</v>
+        <v>-4.614092633507338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.370218481063268</v>
+        <v>-2.414844058841443</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.599335486942113</v>
+        <v>-5.028837126400855</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.598267911349716</v>
+        <v>-7.608333191810991</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.445348038852281</v>
+        <v>-6.463945297012414</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.445744799273091</v>
+        <v>-3.303708471267275</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.424336341178355</v>
+        <v>-4.351935021542531</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.914253782815611</v>
+        <v>-2.653675190948437</v>
       </c>
     </row>
     <row r="18">
@@ -1128,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0326729781335463</v>
+        <v>0.08432156363122664</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.256025965836622</v>
+        <v>-1.291861449223777</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.922731551430159</v>
+        <v>1.946216870808034</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.123797322245181</v>
+        <v>1.338757940690249</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.254862993165022</v>
+        <v>-1.773079529283129</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1191279265483307</v>
+        <v>0.09586896592037419</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.2395974668227256</v>
+        <v>-0.1123989361760348</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.649254525849104</v>
+        <v>-1.628021867990354</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7382279034175651</v>
+        <v>0.872764195532245</v>
       </c>
     </row>
     <row r="19">
@@ -1198,29 +1204,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8351961556318966</v>
+        <v>-0.8291813780314423</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6095508647411574</v>
+        <v>-0.6205594429404736</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8826384055384181</v>
+        <v>-0.8625180214542857</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7837495613795423</v>
+        <v>-0.7891344544247278</v>
       </c>
       <c r="J20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6699444755292342</v>
+        <v>-0.6639471032432531</v>
       </c>
     </row>
     <row r="21">
@@ -1231,29 +1237,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1210115740611124</v>
+        <v>0.1691856451547292</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4740538379494122</v>
+        <v>-0.3582459102277972</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.146960311961817</v>
+        <v>1.042960669705338</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9255044788533302</v>
+        <v>1.775271726728226</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>0.5576702646804081</v>
+        <v>0.3897289336276262</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.0765556965692466</v>
+        <v>-0.03145774500874784</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.598063237586491</v>
+        <v>-0.6061217195875503</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3464535270361505</v>
+        <v>0.4403502723233173</v>
       </c>
     </row>
     <row r="22">
@@ -1274,7 +1280,7 @@
         <v>-0.823155247545702</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.1522024142651809</v>
+        <v>-0.1522024142651811</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.8610122974598422</v>
@@ -1303,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.505400868201488</v>
+        <v>-1.469910167972548</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.814567759205528</v>
+        <v>-1.844844767803907</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.224546194991926</v>
+        <v>-1.267806452611339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.260064599488196</v>
+        <v>-2.335012071631124</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.839551038811836</v>
+        <v>-2.740426838338952</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.327323119449375</v>
+        <v>-2.146958971551945</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.498817118976758</v>
+        <v>-1.431409962525762</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.81707359032135</v>
+        <v>-1.794973072009092</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.317644485368441</v>
+        <v>-1.08139511177875</v>
       </c>
     </row>
     <row r="24">
@@ -1338,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.403589871665026</v>
+        <v>0.4842544896676089</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.04660925553480117</v>
+        <v>-0.04637960690400116</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.935127750216501</v>
+        <v>0.8437334418142641</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5984168187740191</v>
+        <v>0.4462108262668428</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.3644602886147434</v>
+        <v>-0.3646469443423024</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4441355971048259</v>
+        <v>0.4497313122627143</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1070126912790183</v>
+        <v>0.2385171744391163</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.3182983344761244</v>
+        <v>-0.37228349145215</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3869603411385565</v>
+        <v>0.4838096051685898</v>
       </c>
     </row>
     <row r="25">
@@ -1379,7 +1385,7 @@
         <v>-0.5192447993953192</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.09600899987972114</v>
+        <v>-0.09600899987972125</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3922601593495098</v>
@@ -1408,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6926351686339977</v>
+        <v>-0.7125534232050439</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.808890498291465</v>
+        <v>-0.8150000830061788</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5843741081884611</v>
+        <v>-0.597550159832488</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7402901875941205</v>
+        <v>-0.773148589900858</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8801416473116487</v>
+        <v>-0.8876071251552275</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7373410409130035</v>
+        <v>-0.7243635363339692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6377763838175481</v>
+        <v>-0.624329092741727</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7939967529950721</v>
+        <v>-0.7795575305550814</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5533091035015041</v>
+        <v>-0.4935584158052074</v>
       </c>
     </row>
     <row r="27">
@@ -1443,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4486255566926245</v>
+        <v>0.5311011660823173</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.0368185723142472</v>
+        <v>0.05603096222811549</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9684614787778889</v>
+        <v>0.7550847214235534</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5577497924635649</v>
+        <v>0.4276427036910768</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.008355612548098084</v>
+        <v>-0.03669655087213278</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3340241783492341</v>
+        <v>0.3409781343857669</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1103440868965405</v>
+        <v>0.1988961663088216</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2163471318576558</v>
+        <v>-0.2354187702290624</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2915921812776855</v>
+        <v>0.3549282326874808</v>
       </c>
     </row>
     <row r="28">
@@ -1506,7 +1512,7 @@
         <v>-0.4950247950330998</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.5624928908519097</v>
+        <v>0.5624928908519092</v>
       </c>
     </row>
     <row r="29">
@@ -1517,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.446188317018929</v>
+        <v>-1.4519210912244</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.9680625695112</v>
+        <v>-1.814056642030948</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.323788401858398</v>
+        <v>-1.180829825253879</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.856860133848163</v>
+        <v>-1.824760008819347</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.101537397814582</v>
+        <v>-2.078452128901337</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.9110146202002768</v>
+        <v>-1.0699663581451</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.259967366696361</v>
+        <v>-1.249466550207823</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.580496129246045</v>
+        <v>-1.588797238661781</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5729419862493295</v>
+        <v>-0.5924010959726104</v>
       </c>
     </row>
     <row r="30">
@@ -1552,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.602261064176396</v>
+        <v>1.710021525924896</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9913711548914026</v>
+        <v>1.114436905066739</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.406286329667072</v>
+        <v>2.213967856185233</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7781949134495039</v>
+        <v>0.8728833090943877</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7767879151010124</v>
+        <v>0.674309648121287</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.910981353607106</v>
+        <v>1.900023588708214</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8707010235365118</v>
+        <v>0.8400982841146515</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3882996146041356</v>
+        <v>0.4304925059749906</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.61256346326178</v>
+        <v>1.694453851436191</v>
       </c>
     </row>
     <row r="31">
@@ -1611,7 +1617,7 @@
         <v>-0.3231585413276267</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3672025804337917</v>
+        <v>0.3672025804337914</v>
       </c>
     </row>
     <row r="32">
@@ -1622,31 +1628,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6672697525623732</v>
+        <v>-0.665442954317376</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8091838711312334</v>
+        <v>-0.8479172625619712</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6373841403442148</v>
+        <v>-0.6482866300783275</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7734630116986151</v>
+        <v>-0.7523417305002511</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7821279276406364</v>
+        <v>-0.8006615969955544</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3803990413517694</v>
+        <v>-0.4405035126033726</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.57423381702875</v>
+        <v>-0.5765013769177498</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7138420933804395</v>
+        <v>-0.7103398626700703</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3066724494286319</v>
+        <v>-0.2629675706369962</v>
       </c>
     </row>
     <row r="33">
@@ -1657,31 +1663,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.882004405537738</v>
+        <v>3.595360221639739</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.551860168535936</v>
+        <v>2.698570769193454</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.55622720186436</v>
+        <v>4.088302256000238</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8285921283986121</v>
+        <v>1.097781991743444</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.585584222922202</v>
+        <v>1.171213953660633</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.378136532347186</v>
+        <v>2.180059297352398</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.019947814805517</v>
+        <v>1.010738732177341</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4698480335431355</v>
+        <v>0.6301737074567753</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.781531317981935</v>
+        <v>1.844181243409652</v>
       </c>
     </row>
     <row r="34">
@@ -1731,31 +1737,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.529789185815206</v>
+        <v>-2.588309103593164</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.086663678213029</v>
+        <v>-1.18252402310996</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.005906239608887</v>
+        <v>-1.895508454339632</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.6050582406281996</v>
+        <v>-0.636564357528793</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.037933070703645</v>
+        <v>-1.005868967763671</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.512769883181687</v>
+        <v>-1.588422209602022</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.6379738622874804</v>
+        <v>-0.6628007035657222</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.7801761564378218</v>
+        <v>-0.7176053338551227</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.290530848723602</v>
+        <v>-1.229852883451119</v>
       </c>
     </row>
     <row r="36">
@@ -1766,31 +1772,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.06600026065264</v>
+        <v>1.045565577978078</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.598340010210838</v>
+        <v>3.583611938510662</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.534940037538735</v>
+        <v>4.934711782777296</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.382966074604737</v>
+        <v>1.488457787991589</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.7749804592902138</v>
+        <v>0.7872434452948327</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.0377330389063605</v>
+        <v>-0.08618524085887119</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.132398104562108</v>
+        <v>1.10909385984681</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.9682852959615941</v>
+        <v>0.9676601728715699</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.4513206603718992</v>
+        <v>0.5826724517671449</v>
       </c>
     </row>
     <row r="37">
@@ -1837,26 +1843,26 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.8349633501983696</v>
+        <v>-0.8024202577622886</v>
       </c>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.3769407533226338</v>
+        <v>-0.4018968874305033</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5922202639676433</v>
+        <v>-0.6333196131429556</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.8607506734204409</v>
+        <v>-0.8671419116236254</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4138913153385295</v>
+        <v>-0.4190928548788088</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4965243639937811</v>
+        <v>-0.4738579488169855</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.7900356980072918</v>
+        <v>-0.7779257930442733</v>
       </c>
     </row>
     <row r="39">
@@ -1868,26 +1874,26 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>20.23784701917391</v>
+        <v>10.37222683246246</v>
       </c>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>1.777390202289411</v>
+        <v>1.790483009233487</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9672402649738869</v>
+        <v>0.9634679103250388</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1240992638843236</v>
+        <v>-0.0278460315008613</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.340061209081175</v>
+        <v>1.256418005968928</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.114419150260328</v>
+        <v>1.171485845512054</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.6423933418111841</v>
+        <v>0.750858742995772</v>
       </c>
     </row>
     <row r="40">
@@ -1926,7 +1932,7 @@
         <v>-0.6561311906165207</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.1102805690587679</v>
+        <v>-0.1102805690587683</v>
       </c>
     </row>
     <row r="41">
@@ -1937,31 +1943,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.04091949867012</v>
+        <v>-1.081086536627452</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.436984624252819</v>
+        <v>-1.376014468237722</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.775625444549798</v>
+        <v>-0.6803152890770958</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.7697621808954361</v>
+        <v>-0.6695055932749018</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.169883905751079</v>
+        <v>-1.085295598687617</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.8109464639376637</v>
+        <v>-0.761776048577169</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.6977828697583597</v>
+        <v>-0.6664530833256713</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.096347003723167</v>
+        <v>-1.052602106647066</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.5843794385362298</v>
+        <v>-0.6179919601025372</v>
       </c>
     </row>
     <row r="42">
@@ -1972,31 +1978,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1769032058096629</v>
+        <v>0.1775126406262253</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.2292143537791047</v>
+        <v>-0.1676434423442812</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.6895167088621588</v>
+        <v>0.7244615586262443</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.4870904824392226</v>
+        <v>0.5593417692718776</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.01840415823540991</v>
+        <v>0.0563930988387169</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.3800983155806561</v>
+        <v>0.4324085935172529</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.1844039125284863</v>
+        <v>0.2058985951649629</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.2398541133103078</v>
+        <v>-0.2474991169762041</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3267428323258124</v>
+        <v>0.339315548970174</v>
       </c>
     </row>
     <row r="43">
@@ -2031,7 +2037,7 @@
         <v>-0.3903188037050015</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.06560361769492944</v>
+        <v>-0.06560361769492964</v>
       </c>
     </row>
     <row r="44">
@@ -2042,31 +2048,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4923169559091601</v>
+        <v>-0.5145215912886146</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6964490078988604</v>
+        <v>-0.6431426941746629</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3830383443595116</v>
+        <v>-0.3394895944572385</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3756382488663265</v>
+        <v>-0.3392719420131581</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5731293898017911</v>
+        <v>-0.5464255990962723</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3986651052442862</v>
+        <v>-0.3916954905407344</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3569945037140539</v>
+        <v>-0.3552481008141726</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5498807156225823</v>
+        <v>-0.5496117332331202</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2974123495984349</v>
+        <v>-0.3200968742398842</v>
       </c>
     </row>
     <row r="45">
@@ -2077,31 +2083,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1383540406113476</v>
+        <v>0.1434419950042234</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1428753651157557</v>
+        <v>-0.1104222937510998</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5250027170772844</v>
+        <v>0.5438081187445816</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.352569223843015</v>
+        <v>0.4188778460704222</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.02280462086048633</v>
+        <v>0.05038816940849662</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2775573399695093</v>
+        <v>0.367670116411917</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1317613618711347</v>
+        <v>0.1451525772442056</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1529640249869884</v>
+        <v>-0.1535874079161288</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2339651609578549</v>
+        <v>0.2316850712355327</v>
       </c>
     </row>
     <row r="46">
